--- a/OfflineXPlanner/excel_templates/export_assets.xlsx
+++ b/OfflineXPlanner/excel_templates/export_assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\Trabalho\New System\XPlanner\DEV\OfflineXPlanner\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\xPlannerRepo\OfflineXPlanner\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B37435-D32D-440F-847C-BFDB3D385F08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0D4CC-52AC-480A-93EE-3375B0BD853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{DC0110A3-39B0-4A2F-AC13-CA2C30E7D5ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC0110A3-39B0-4A2F-AC13-CA2C30E7D5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -117,14 +117,14 @@
     <t>Mounting Height</t>
   </si>
   <si>
-    <t>CAD ID</t>
+    <t>Serial Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,31 +489,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C802CB-336A-450E-A873-058BA5B3F9E1}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="27" max="27" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" customWidth="1"/>
     <col min="29" max="30" width="16" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,11 +602,14 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
